--- a/public/assets/documents/excels/DOKUMEN APLIKASI.xlsx
+++ b/public/assets/documents/excels/DOKUMEN APLIKASI.xlsx
@@ -42,7 +42,7 @@
     <t>PENGGUNAAN</t>
   </si>
   <si>
-    <t>kawasaki</t>
+    <t>Kawasaki</t>
   </si>
   <si>
     <t>Pengisian BBM</t>
